--- a/old_database/crypto/library/library_0684.xlsx
+++ b/old_database/crypto/library/library_0684.xlsx
@@ -52,7 +52,7 @@
     <t>12.07.11</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_0684</t>
   </si>
   <si>
     <t>03.19.12</t>
